--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Myoc-Fzd1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Myoc-Fzd1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2144083333333333</v>
+        <v>0.720897</v>
       </c>
       <c r="H2">
-        <v>0.643225</v>
+        <v>2.162691</v>
       </c>
       <c r="I2">
-        <v>0.008611346839948651</v>
+        <v>0.0284720950782092</v>
       </c>
       <c r="J2">
-        <v>0.008611346839948651</v>
+        <v>0.02847209507820921</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6559766666666667</v>
+        <v>0.8908616666666668</v>
       </c>
       <c r="N2">
-        <v>1.96793</v>
+        <v>2.672585</v>
       </c>
       <c r="O2">
-        <v>0.030799191223283</v>
+        <v>0.04079002072021364</v>
       </c>
       <c r="P2">
-        <v>0.030799191223283</v>
+        <v>0.04079002072021363</v>
       </c>
       <c r="Q2">
-        <v>0.1406468638055555</v>
+        <v>0.6422195029150001</v>
       </c>
       <c r="R2">
-        <v>1.26582177425</v>
+        <v>5.779975526235001</v>
       </c>
       <c r="S2">
-        <v>0.0002652225180135923</v>
+        <v>0.001161377348188046</v>
       </c>
       <c r="T2">
-        <v>0.0002652225180135923</v>
+        <v>0.001161377348188046</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2144083333333333</v>
+        <v>0.720897</v>
       </c>
       <c r="H3">
-        <v>0.643225</v>
+        <v>2.162691</v>
       </c>
       <c r="I3">
-        <v>0.008611346839948651</v>
+        <v>0.0284720950782092</v>
       </c>
       <c r="J3">
-        <v>0.008611346839948651</v>
+        <v>0.02847209507820921</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.81477433333334</v>
+        <v>16.81477433333333</v>
       </c>
       <c r="N3">
         <v>50.444323</v>
       </c>
       <c r="O3">
-        <v>0.7894815111340611</v>
+        <v>0.7699006693471485</v>
       </c>
       <c r="P3">
-        <v>0.7894815111340611</v>
+        <v>0.7699006693471484</v>
       </c>
       <c r="Q3">
-        <v>3.605227740186112</v>
+        <v>12.121720372577</v>
       </c>
       <c r="R3">
-        <v>32.447049661675</v>
+        <v>109.095483353193</v>
       </c>
       <c r="S3">
-        <v>0.006798499116102183</v>
+        <v>0.02192068505842892</v>
       </c>
       <c r="T3">
-        <v>0.006798499116102183</v>
+        <v>0.02192068505842892</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2144083333333333</v>
+        <v>0.720897</v>
       </c>
       <c r="H4">
-        <v>0.643225</v>
+        <v>2.162691</v>
       </c>
       <c r="I4">
-        <v>0.008611346839948651</v>
+        <v>0.0284720950782092</v>
       </c>
       <c r="J4">
-        <v>0.008611346839948651</v>
+        <v>0.02847209507820921</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.232341666666667</v>
+        <v>3.879966</v>
       </c>
       <c r="N4">
-        <v>9.697025</v>
+        <v>11.639898</v>
       </c>
       <c r="O4">
-        <v>0.1517637961065464</v>
+        <v>0.1776526024808091</v>
       </c>
       <c r="P4">
-        <v>0.1517637961065464</v>
+        <v>0.1776526024808091</v>
       </c>
       <c r="Q4">
-        <v>0.6930409895138889</v>
+        <v>2.797055849502</v>
       </c>
       <c r="R4">
-        <v>6.237368905625001</v>
+        <v>25.173502645518</v>
       </c>
       <c r="S4">
-        <v>0.001306890686020719</v>
+        <v>0.005058141788724901</v>
       </c>
       <c r="T4">
-        <v>0.00130689068602072</v>
+        <v>0.005058141788724901</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2144083333333333</v>
+        <v>0.720897</v>
       </c>
       <c r="H5">
-        <v>0.643225</v>
+        <v>2.162691</v>
       </c>
       <c r="I5">
-        <v>0.008611346839948651</v>
+        <v>0.0284720950782092</v>
       </c>
       <c r="J5">
-        <v>0.008611346839948651</v>
+        <v>0.02847209507820921</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5954103333333333</v>
+        <v>0.2545846666666667</v>
       </c>
       <c r="N5">
-        <v>1.786231</v>
+        <v>0.763754</v>
       </c>
       <c r="O5">
-        <v>0.02795550153610952</v>
+        <v>0.01165670745182886</v>
       </c>
       <c r="P5">
-        <v>0.02795550153610952</v>
+        <v>0.01165670745182886</v>
       </c>
       <c r="Q5">
-        <v>0.1276609372194444</v>
+        <v>0.183529322446</v>
       </c>
       <c r="R5">
-        <v>1.148948434975</v>
+        <v>1.651763902014</v>
       </c>
       <c r="S5">
-        <v>0.0002407345198121564</v>
+        <v>0.0003318908828673411</v>
       </c>
       <c r="T5">
-        <v>0.0002407345198121564</v>
+        <v>0.0003318908828673411</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>71.91377399999999</v>
       </c>
       <c r="I6">
-        <v>0.9627648963950115</v>
+        <v>0.9467537483444692</v>
       </c>
       <c r="J6">
-        <v>0.9627648963950115</v>
+        <v>0.9467537483444693</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6559766666666667</v>
+        <v>0.8908616666666668</v>
       </c>
       <c r="N6">
-        <v>1.96793</v>
+        <v>2.672585</v>
       </c>
       <c r="O6">
-        <v>0.030799191223283</v>
+        <v>0.04079002072021364</v>
       </c>
       <c r="P6">
-        <v>0.030799191223283</v>
+        <v>0.04079002072021363</v>
       </c>
       <c r="Q6">
-        <v>15.72458591864666</v>
+        <v>21.35507485397666</v>
       </c>
       <c r="R6">
-        <v>141.52127326782</v>
+        <v>192.19567368579</v>
       </c>
       <c r="S6">
-        <v>0.0296523801471342</v>
+        <v>0.03861810501191083</v>
       </c>
       <c r="T6">
-        <v>0.02965238014713421</v>
+        <v>0.03861810501191083</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>71.91377399999999</v>
       </c>
       <c r="I7">
-        <v>0.9627648963950115</v>
+        <v>0.9467537483444692</v>
       </c>
       <c r="J7">
-        <v>0.9627648963950115</v>
+        <v>0.9467537483444693</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.81477433333334</v>
+        <v>16.81477433333333</v>
       </c>
       <c r="N7">
         <v>50.444323</v>
       </c>
       <c r="O7">
-        <v>0.7894815111340611</v>
+        <v>0.7699006693471485</v>
       </c>
       <c r="P7">
-        <v>0.7894815111340611</v>
+        <v>0.7699006693471484</v>
       </c>
       <c r="Q7">
-        <v>403.0712937561113</v>
+        <v>403.0712937561112</v>
       </c>
       <c r="R7">
-        <v>3627.641643805002</v>
+        <v>3627.641643805001</v>
       </c>
       <c r="S7">
-        <v>0.7600850852727614</v>
+        <v>0.7289063445573286</v>
       </c>
       <c r="T7">
-        <v>0.7600850852727614</v>
+        <v>0.7289063445573286</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>71.91377399999999</v>
       </c>
       <c r="I8">
-        <v>0.9627648963950115</v>
+        <v>0.9467537483444692</v>
       </c>
       <c r="J8">
-        <v>0.9627648963950115</v>
+        <v>0.9467537483444693</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.232341666666667</v>
+        <v>3.879966</v>
       </c>
       <c r="N8">
-        <v>9.697025</v>
+        <v>11.639898</v>
       </c>
       <c r="O8">
-        <v>0.1517637961065464</v>
+        <v>0.1776526024808091</v>
       </c>
       <c r="P8">
-        <v>0.1517637961065464</v>
+        <v>0.1776526024808091</v>
       </c>
       <c r="Q8">
-        <v>77.48329603581665</v>
+        <v>93.00766601722798</v>
       </c>
       <c r="R8">
-        <v>697.3496643223499</v>
+        <v>837.0689941550519</v>
       </c>
       <c r="S8">
-        <v>0.1461128554350327</v>
+        <v>0.168193267301856</v>
       </c>
       <c r="T8">
-        <v>0.1461128554350328</v>
+        <v>0.168193267301856</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>71.91377399999999</v>
       </c>
       <c r="I9">
-        <v>0.9627648963950115</v>
+        <v>0.9467537483444692</v>
       </c>
       <c r="J9">
-        <v>0.9627648963950115</v>
+        <v>0.9467537483444693</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5954103333333333</v>
+        <v>0.2545846666666667</v>
       </c>
       <c r="N9">
-        <v>1.786231</v>
+        <v>0.763754</v>
       </c>
       <c r="O9">
-        <v>0.02795550153610952</v>
+        <v>0.01165670745182886</v>
       </c>
       <c r="P9">
-        <v>0.02795550153610952</v>
+        <v>0.01165670745182886</v>
       </c>
       <c r="Q9">
-        <v>14.27273471619933</v>
+        <v>6.102714727510666</v>
       </c>
       <c r="R9">
-        <v>128.454612445794</v>
+        <v>54.924432547596</v>
       </c>
       <c r="S9">
-        <v>0.02691457554008306</v>
+        <v>0.01103603147337388</v>
       </c>
       <c r="T9">
-        <v>0.02691457554008307</v>
+        <v>0.01103603147337388</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7126843333333334</v>
+        <v>0.6272673333333333</v>
       </c>
       <c r="H10">
-        <v>2.138053</v>
+        <v>1.881802</v>
       </c>
       <c r="I10">
-        <v>0.02862375676503981</v>
+        <v>0.0247741565773216</v>
       </c>
       <c r="J10">
-        <v>0.02862375676503981</v>
+        <v>0.0247741565773216</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6559766666666667</v>
+        <v>0.8908616666666668</v>
       </c>
       <c r="N10">
-        <v>1.96793</v>
+        <v>2.672585</v>
       </c>
       <c r="O10">
-        <v>0.030799191223283</v>
+        <v>0.04079002072021364</v>
       </c>
       <c r="P10">
-        <v>0.030799191223283</v>
+        <v>0.04079002072021363</v>
       </c>
       <c r="Q10">
-        <v>0.4675042933655555</v>
+        <v>0.5588084220188889</v>
       </c>
       <c r="R10">
-        <v>4.20753864029</v>
+        <v>5.02927579817</v>
       </c>
       <c r="S10">
-        <v>0.0008815885581352015</v>
+        <v>0.001010538360114765</v>
       </c>
       <c r="T10">
-        <v>0.0008815885581352016</v>
+        <v>0.001010538360114765</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7126843333333334</v>
+        <v>0.6272673333333333</v>
       </c>
       <c r="H11">
-        <v>2.138053</v>
+        <v>1.881802</v>
       </c>
       <c r="I11">
-        <v>0.02862375676503981</v>
+        <v>0.0247741565773216</v>
       </c>
       <c r="J11">
-        <v>0.02862375676503981</v>
+        <v>0.0247741565773216</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.81477433333334</v>
+        <v>16.81477433333333</v>
       </c>
       <c r="N11">
         <v>50.444323</v>
       </c>
       <c r="O11">
-        <v>0.7894815111340611</v>
+        <v>0.7699006693471485</v>
       </c>
       <c r="P11">
-        <v>0.7894815111340611</v>
+        <v>0.7699006693471484</v>
       </c>
       <c r="Q11">
-        <v>11.98362623590211</v>
+        <v>10.54735865667178</v>
       </c>
       <c r="R11">
-        <v>107.852636123119</v>
+        <v>94.92622791004599</v>
       </c>
       <c r="S11">
-        <v>0.02259792674519744</v>
+        <v>0.01907363973139096</v>
       </c>
       <c r="T11">
-        <v>0.02259792674519744</v>
+        <v>0.01907363973139096</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7126843333333334</v>
+        <v>0.6272673333333333</v>
       </c>
       <c r="H12">
-        <v>2.138053</v>
+        <v>1.881802</v>
       </c>
       <c r="I12">
-        <v>0.02862375676503981</v>
+        <v>0.0247741565773216</v>
       </c>
       <c r="J12">
-        <v>0.02862375676503981</v>
+        <v>0.0247741565773216</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.232341666666667</v>
+        <v>3.879966</v>
       </c>
       <c r="N12">
-        <v>9.697025</v>
+        <v>11.639898</v>
       </c>
       <c r="O12">
-        <v>0.1517637961065464</v>
+        <v>0.1776526024808091</v>
       </c>
       <c r="P12">
-        <v>0.1517637961065464</v>
+        <v>0.1776526024808091</v>
       </c>
       <c r="Q12">
-        <v>2.303639265813889</v>
+        <v>2.433775926244</v>
       </c>
       <c r="R12">
-        <v>20.732753392325</v>
+        <v>21.903983336196</v>
       </c>
       <c r="S12">
-        <v>0.004344049985492879</v>
+        <v>0.004401193390228236</v>
       </c>
       <c r="T12">
-        <v>0.00434404998549288</v>
+        <v>0.004401193390228236</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.7126843333333334</v>
+        <v>0.6272673333333333</v>
       </c>
       <c r="H13">
-        <v>2.138053</v>
+        <v>1.881802</v>
       </c>
       <c r="I13">
-        <v>0.02862375676503981</v>
+        <v>0.0247741565773216</v>
       </c>
       <c r="J13">
-        <v>0.02862375676503981</v>
+        <v>0.0247741565773216</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.5954103333333333</v>
+        <v>0.2545846666666667</v>
       </c>
       <c r="N13">
-        <v>1.786231</v>
+        <v>0.763754</v>
       </c>
       <c r="O13">
-        <v>0.02795550153610952</v>
+        <v>0.01165670745182886</v>
       </c>
       <c r="P13">
-        <v>0.02795550153610952</v>
+        <v>0.01165670745182886</v>
       </c>
       <c r="Q13">
-        <v>0.4243396164714444</v>
+        <v>0.1596926449675556</v>
       </c>
       <c r="R13">
-        <v>3.819056548243</v>
+        <v>1.437233804708</v>
       </c>
       <c r="S13">
-        <v>0.0008001914762142958</v>
+        <v>0.0002887850955876397</v>
       </c>
       <c r="T13">
-        <v>0.0008001914762142958</v>
+        <v>0.0002887850955876397</v>
       </c>
     </row>
   </sheetData>
